--- a/data/trans_orig/P36B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>98583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81437</v>
+        <v>80034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117620</v>
+        <v>117152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1420482347885223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1173422300146466</v>
+        <v>0.115320087734294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1694788275730347</v>
+        <v>0.1688046389859456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -765,19 +765,19 @@
         <v>90601</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72505</v>
+        <v>75255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108256</v>
+        <v>109352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1316200431084363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.105332121981234</v>
+        <v>0.109325860069644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.157269077452319</v>
+        <v>0.1588613815471985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -786,19 +786,19 @@
         <v>189184</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166548</v>
+        <v>165496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213512</v>
+        <v>216125</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1368554918772003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.120480697809223</v>
+        <v>0.1197195050144055</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1544543610333657</v>
+        <v>0.1563444657662402</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>146564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125121</v>
+        <v>126583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167389</v>
+        <v>168280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2111840896482746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1802872269675975</v>
+        <v>0.1823936481564117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2411901173394094</v>
+        <v>0.2424738580322818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -836,19 +836,19 @@
         <v>145098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124143</v>
+        <v>124800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166023</v>
+        <v>167120</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2107906167336091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1803490172597488</v>
+        <v>0.1813028201984976</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2411898436438168</v>
+        <v>0.2427834229396581</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>288</v>
@@ -857,19 +857,19 @@
         <v>291662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260204</v>
+        <v>262285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>321254</v>
+        <v>319214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2109881588722487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1882311517582488</v>
+        <v>0.1897369828217858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2323946843967053</v>
+        <v>0.2309191328704814</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>223009</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>198006</v>
+        <v>197989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>248055</v>
+        <v>248001</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3213332007615344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2853060930108692</v>
+        <v>0.2852823894178924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3574211016137445</v>
+        <v>0.3573443939030151</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>255</v>
@@ -907,19 +907,19 @@
         <v>253657</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>229264</v>
+        <v>230786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>279448</v>
+        <v>282453</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3684995505785993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3330629070951918</v>
+        <v>0.3352730201977366</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4059667560284244</v>
+        <v>0.4103332502017772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>474</v>
@@ -928,19 +928,19 @@
         <v>476666</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>442925</v>
+        <v>443927</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>511123</v>
+        <v>510016</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3448197971129623</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3204117532786885</v>
+        <v>0.321136445962092</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.369745687080517</v>
+        <v>0.368945061450702</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>136146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117696</v>
+        <v>116724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159014</v>
+        <v>156916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1961727344566778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1695877488793483</v>
+        <v>0.1681875288902568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2291229923401787</v>
+        <v>0.2260994285382372</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -978,19 +978,19 @@
         <v>125851</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105083</v>
+        <v>107554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146164</v>
+        <v>149036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1828291728853891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1526588396708224</v>
+        <v>0.1562484858224329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2123387551574029</v>
+        <v>0.2165117047489232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>265</v>
@@ -999,19 +999,19 @@
         <v>261997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>234667</v>
+        <v>234532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>292872</v>
+        <v>290678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.189528276156835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1697579501696103</v>
+        <v>0.1696601197678204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2118631371976337</v>
+        <v>0.2102760390737293</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>89709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70827</v>
+        <v>73260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106765</v>
+        <v>109074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1292617403449908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1020550026939763</v>
+        <v>0.1055604769953968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1538376861454657</v>
+        <v>0.1571637716672473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1049,19 +1049,19 @@
         <v>73145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58332</v>
+        <v>57942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90023</v>
+        <v>88421</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1062606166939663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08474095849789948</v>
+        <v>0.08417439874499376</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1307801311448482</v>
+        <v>0.1284531102554877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>162</v>
@@ -1070,19 +1070,19 @@
         <v>162854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>141362</v>
+        <v>139773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191032</v>
+        <v>188835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1178082759807537</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1022610225411496</v>
+        <v>0.1011113674080408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1381923183671587</v>
+        <v>0.1366033189587385</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>165613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142955</v>
+        <v>142174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191843</v>
+        <v>191000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1721906644125366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1486330433327615</v>
+        <v>0.1478210526247054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1994627136031816</v>
+        <v>0.1985855428650127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1195,19 +1195,19 @@
         <v>145833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124003</v>
+        <v>121741</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168476</v>
+        <v>170862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1519517754075168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1292062688267271</v>
+        <v>0.1268493552838705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.175545212876494</v>
+        <v>0.1780313386563373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>292</v>
@@ -1216,19 +1216,19 @@
         <v>311446</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277423</v>
+        <v>278259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344626</v>
+        <v>345860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1620821133172151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1443758660223751</v>
+        <v>0.1448108394374112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1793496009063666</v>
+        <v>0.1799915768992013</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>182578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160320</v>
+        <v>159936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206758</v>
+        <v>207859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1898299464065333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1666873423283191</v>
+        <v>0.1662881220785101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.214969561664464</v>
+        <v>0.2161145541643891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>183</v>
@@ -1266,19 +1266,19 @@
         <v>199321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175194</v>
+        <v>176197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227550</v>
+        <v>226294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2076842180166566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1825447388721501</v>
+        <v>0.1835898742404791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2370974331430785</v>
+        <v>0.2357892457532818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>359</v>
@@ -1287,19 +1287,19 @@
         <v>381900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>346645</v>
+        <v>345016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>420387</v>
+        <v>416913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1987474723041215</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1804002226903516</v>
+        <v>0.1795523760306561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.218776801535407</v>
+        <v>0.2169693093584837</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>305286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>277713</v>
+        <v>274846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>337208</v>
+        <v>334214</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3174116107640909</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2887434302447488</v>
+        <v>0.2857617269715325</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3506010580363518</v>
+        <v>0.3474884239854195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>322</v>
@@ -1337,19 +1337,19 @@
         <v>339086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>309193</v>
+        <v>307206</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>370674</v>
+        <v>369700</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.353312853152809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3221656002470593</v>
+        <v>0.3200955426392141</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3862269817781632</v>
+        <v>0.3852114753465834</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>607</v>
@@ -1358,19 +1358,19 @@
         <v>644372</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>599799</v>
+        <v>603625</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>684027</v>
+        <v>686434</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3353429084248402</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.312146505370897</v>
+        <v>0.3141375959854321</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3559800228818664</v>
+        <v>0.3572324596384677</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>183029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156461</v>
+        <v>158256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>209011</v>
+        <v>211399</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1902988766513017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1626751978538256</v>
+        <v>0.1645412537303046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2173119453059843</v>
+        <v>0.2197952749789046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>160</v>
@@ -1408,19 +1408,19 @@
         <v>169007</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146349</v>
+        <v>145654</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191657</v>
+        <v>195459</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.17609824139571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1524898223235939</v>
+        <v>0.1517654169716888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1996985472805864</v>
+        <v>0.2036598323421629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>325</v>
@@ -1429,19 +1429,19 @@
         <v>352037</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>316485</v>
+        <v>317700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389430</v>
+        <v>384821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1832062023927706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1647043987555142</v>
+        <v>0.1653369771576808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2026661667006128</v>
+        <v>0.2002677931937287</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>125293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104762</v>
+        <v>103652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148119</v>
+        <v>150235</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1302689017655376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1089226913497941</v>
+        <v>0.1077689876294706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1540021240336985</v>
+        <v>0.1562021607060013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -1479,19 +1479,19 @@
         <v>106485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87000</v>
+        <v>88365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126314</v>
+        <v>127051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1109529120273076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09064989913341269</v>
+        <v>0.09207260124525728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.131613502634816</v>
+        <v>0.1323812646268543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -1500,19 +1500,19 @@
         <v>231778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204110</v>
+        <v>205070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>261313</v>
+        <v>261665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1206213035610525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1062224720204782</v>
+        <v>0.1067223499905664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1359919764992261</v>
+        <v>0.1361749749735436</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>94314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75459</v>
+        <v>77888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115401</v>
+        <v>115180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1397982610138271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1118499023218207</v>
+        <v>0.1154515395006061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1710552779041993</v>
+        <v>0.1707273209183457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -1625,19 +1625,19 @@
         <v>103545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84143</v>
+        <v>84721</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120661</v>
+        <v>121939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1522710068202905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1237384913068404</v>
+        <v>0.124588703389095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1774414899502054</v>
+        <v>0.1793203521317176</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>193</v>
@@ -1646,19 +1646,19 @@
         <v>197859</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173393</v>
+        <v>174317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223015</v>
+        <v>225321</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1460593328160864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1279983873680711</v>
+        <v>0.1286808688192957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1646296514771258</v>
+        <v>0.1663317575694141</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>142487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122857</v>
+        <v>122848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164527</v>
+        <v>163733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2112039400598565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1821074021907702</v>
+        <v>0.1820932588784613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2438726862707152</v>
+        <v>0.2426963939584262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -1696,19 +1696,19 @@
         <v>145375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126336</v>
+        <v>124768</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167492</v>
+        <v>167179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2137847716409683</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1857866272115501</v>
+        <v>0.1834811698449358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2463092362239451</v>
+        <v>0.2458490775379459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>289</v>
@@ -1717,19 +1717,19 @@
         <v>287862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>259192</v>
+        <v>258188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>317103</v>
+        <v>316714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2124994664892099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1913354081407814</v>
+        <v>0.1905940811046919</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2340850244621713</v>
+        <v>0.2337981298911505</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>195765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>170453</v>
+        <v>172313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>218340</v>
+        <v>222456</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2901766038788297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2526562416051604</v>
+        <v>0.255414549415984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3236378108221876</v>
+        <v>0.3297387115165409</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>192</v>
@@ -1767,19 +1767,19 @@
         <v>188839</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>166304</v>
+        <v>166947</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>212444</v>
+        <v>214266</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2777010751066901</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2445615986039057</v>
+        <v>0.2455070339026403</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3124140592574139</v>
+        <v>0.3150934079283177</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>380</v>
@@ -1788,19 +1788,19 @@
         <v>384604</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>351769</v>
+        <v>351130</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>419003</v>
+        <v>417622</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2839141350828215</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2596754203354959</v>
+        <v>0.2592037879663601</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3093073305621123</v>
+        <v>0.3082877995377527</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>138903</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118826</v>
+        <v>117217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161326</v>
+        <v>164283</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2058912521141009</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1761312728371297</v>
+        <v>0.1737463235194023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2391283644680858</v>
+        <v>0.243511342756875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -1838,19 +1838,19 @@
         <v>135850</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116205</v>
+        <v>117512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160735</v>
+        <v>159644</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1997773964873563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1708873183790328</v>
+        <v>0.1728097095690903</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2363718590418992</v>
+        <v>0.2347687925348754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>261</v>
@@ -1859,19 +1859,19 @@
         <v>274753</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>242642</v>
+        <v>246444</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>307145</v>
+        <v>305238</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2028222174635383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1791181089165189</v>
+        <v>0.1819248942946072</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2267343115248094</v>
+        <v>0.2253265687488649</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>103173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85667</v>
+        <v>84775</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125723</v>
+        <v>123091</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1529299429333858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1269816766461282</v>
+        <v>0.1256590595157526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1863545712708284</v>
+        <v>0.1824541708505497</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -1909,19 +1909,19 @@
         <v>106398</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88999</v>
+        <v>88228</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125455</v>
+        <v>125835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1564657499446948</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1308800356829313</v>
+        <v>0.1297455024694271</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1844912448588862</v>
+        <v>0.1850493462124297</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>206</v>
@@ -1930,19 +1930,19 @@
         <v>209571</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184153</v>
+        <v>184867</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>233618</v>
+        <v>238070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1547048481483438</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.135941250165653</v>
+        <v>0.1364682993941309</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1724564066645465</v>
+        <v>0.1757430014794263</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>138404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115345</v>
+        <v>118189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159551</v>
+        <v>160084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1474233759392387</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1228620691219653</v>
+        <v>0.1258912820492563</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1699481406631295</v>
+        <v>0.1705163772391838</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -2055,19 +2055,19 @@
         <v>109693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90750</v>
+        <v>90078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131899</v>
+        <v>129682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1061099565332822</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08778549903886169</v>
+        <v>0.08713554511909742</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1275901921609763</v>
+        <v>0.125445647575529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>253</v>
@@ -2076,19 +2076,19 @@
         <v>248097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>219455</v>
+        <v>220542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>275671</v>
+        <v>278239</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1257723910882588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1112524801042612</v>
+        <v>0.1118033211332508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1397510020531379</v>
+        <v>0.1410530309408593</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>188487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>165632</v>
+        <v>165459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213300</v>
+        <v>213949</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2007705282753629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1764255062481804</v>
+        <v>0.1762416193565415</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2272001300926952</v>
+        <v>0.2278915266072634</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>193</v>
@@ -2126,19 +2126,19 @@
         <v>200017</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>175263</v>
+        <v>173442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>224189</v>
+        <v>223604</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.193484044050865</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1695383618112118</v>
+        <v>0.1677770388658099</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2168663544389909</v>
+        <v>0.2162997111242891</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>391</v>
@@ -2147,19 +2147,19 @@
         <v>388505</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>356298</v>
+        <v>354822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>425489</v>
+        <v>423959</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1969519249781795</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1806248678843662</v>
+        <v>0.1798765635061027</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2157009458144724</v>
+        <v>0.2149253259321076</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>252451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>228113</v>
+        <v>226692</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>279556</v>
+        <v>279434</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2689025602920899</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2429787620534302</v>
+        <v>0.2414647280137074</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2977743050603822</v>
+        <v>0.2976438289240496</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>310</v>
@@ -2197,19 +2197,19 @@
         <v>321500</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>291739</v>
+        <v>293166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>352826</v>
+        <v>353932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3109984836092695</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2822096686405142</v>
+        <v>0.2835895967910271</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3413010058600219</v>
+        <v>0.3423715203460937</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>569</v>
@@ -2218,19 +2218,19 @@
         <v>573951</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>535074</v>
+        <v>530492</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>613629</v>
+        <v>613286</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2909636293377778</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2712550817812167</v>
+        <v>0.2689322687970085</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3110785089325499</v>
+        <v>0.3109044241116254</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>219048</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>195592</v>
+        <v>191217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>244100</v>
+        <v>244778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2333224940300205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2083385181847462</v>
+        <v>0.2036781462708108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.260006731818029</v>
+        <v>0.2607294926973301</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>212</v>
@@ -2268,19 +2268,19 @@
         <v>220164</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192114</v>
+        <v>194661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>245088</v>
+        <v>246324</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2129724215999611</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1858388744175044</v>
+        <v>0.1883024035063886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.237082521099748</v>
+        <v>0.2382779911266054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>446</v>
@@ -2289,19 +2289,19 @@
         <v>439211</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>404013</v>
+        <v>404184</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>476674</v>
+        <v>478771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2226576999695212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2048138599721641</v>
+        <v>0.2049005316914093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.241649101574842</v>
+        <v>0.2427123143610918</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>140430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>120292</v>
+        <v>120315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164861</v>
+        <v>162251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1495810414632879</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1281307890371061</v>
+        <v>0.1281553937287025</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1756045255750561</v>
+        <v>0.1728239456187259</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>173</v>
@@ -2339,19 +2339,19 @@
         <v>182393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>158779</v>
+        <v>159171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>207020</v>
+        <v>208071</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1764350942066223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1535924617077856</v>
+        <v>0.1539716568501563</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2002579980896711</v>
+        <v>0.2012741786716946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>324</v>
@@ -2360,19 +2360,19 @@
         <v>322822</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>293791</v>
+        <v>291711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>357978</v>
+        <v>358523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1636543546262628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1489371640397953</v>
+        <v>0.1478826398064565</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1814767164331837</v>
+        <v>0.18175298356231</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>496914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>459421</v>
+        <v>456608</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>541394</v>
+        <v>540066</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1519952008183355</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1405271049851559</v>
+        <v>0.1396664699699347</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1656006242080949</v>
+        <v>0.1651946767273607</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>438</v>
@@ -2485,19 +2485,19 @@
         <v>449672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>411037</v>
+        <v>413492</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>488775</v>
+        <v>490298</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1337570552098729</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.12226495080455</v>
+        <v>0.1229951760079317</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1453884641994857</v>
+        <v>0.1458413286681804</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>928</v>
@@ -2506,19 +2506,19 @@
         <v>946586</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>891379</v>
+        <v>885225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1004255</v>
+        <v>999960</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1427488093878696</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.134423388781026</v>
+        <v>0.1334954117585959</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1514455171213305</v>
+        <v>0.1507977822179509</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>660117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>621488</v>
+        <v>616907</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>714183</v>
+        <v>708988</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2019155229462396</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1900998278210079</v>
+        <v>0.1886984670732765</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2184531800057766</v>
+        <v>0.2168641468527567</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>676</v>
@@ -2556,19 +2556,19 @@
         <v>689811</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>646154</v>
+        <v>645464</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>737263</v>
+        <v>734530</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2051876939752869</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1922014334071539</v>
+        <v>0.1919964479545019</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2193023081753353</v>
+        <v>0.2184894526800031</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1327</v>
@@ -2577,19 +2577,19 @@
         <v>1349928</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1281648</v>
+        <v>1280850</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1415026</v>
+        <v>1419542</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2035744511515261</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1932775347573128</v>
+        <v>0.1931572118149853</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2133913657257137</v>
+        <v>0.2140725012283863</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>976512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>925231</v>
+        <v>924903</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1030490</v>
+        <v>1035777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2986938480904273</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2830082974715346</v>
+        <v>0.2829079405734257</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.315204545862409</v>
+        <v>0.3168219066289277</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1079</v>
@@ -2627,19 +2627,19 @@
         <v>1103081</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1052710</v>
+        <v>1050717</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1153553</v>
+        <v>1159986</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.328116674528643</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3131336285369622</v>
+        <v>0.3125408307850667</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3431298608231299</v>
+        <v>0.3450434622697545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2030</v>
@@ -2648,19 +2648,19 @@
         <v>2079593</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2004896</v>
+        <v>2007525</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2159274</v>
+        <v>2158159</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3136106590469188</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3023460623216845</v>
+        <v>0.3027426171736308</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3256268719181524</v>
+        <v>0.3254586856433621</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>677126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>629005</v>
+        <v>631185</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>723950</v>
+        <v>721572</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2071182734142152</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1923989043951898</v>
+        <v>0.1930659862783588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2214405676483844</v>
+        <v>0.2207133358863816</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>633</v>
@@ -2698,19 +2698,19 @@
         <v>650871</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>603981</v>
+        <v>606735</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>696907</v>
+        <v>699219</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1936047986949154</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1796569538296203</v>
+        <v>0.1804762333239701</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2072983027816264</v>
+        <v>0.2079860821466003</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1297</v>
@@ -2719,19 +2719,19 @@
         <v>1327998</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1264933</v>
+        <v>1254771</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1397474</v>
+        <v>1389757</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2002671998718276</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1907568705144072</v>
+        <v>0.1892243203907322</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2107445435508934</v>
+        <v>0.2095807315366103</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>458604</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>419767</v>
+        <v>421819</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>499002</v>
+        <v>497666</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1402771547307824</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1283975539359793</v>
+        <v>0.1290251792102382</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1526338625062462</v>
+        <v>0.1522253005970471</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>455</v>
@@ -2769,19 +2769,19 @@
         <v>468420</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>429846</v>
+        <v>428580</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>510934</v>
+        <v>513404</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1393337775912818</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1278596016944694</v>
+        <v>0.1274830459088088</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1519798831509803</v>
+        <v>0.1527145456089223</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>905</v>
@@ -2790,19 +2790,19 @@
         <v>927024</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>871078</v>
+        <v>873694</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>985889</v>
+        <v>983748</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1397988805418578</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.131361964948641</v>
+        <v>0.1317564496400241</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1486758986208273</v>
+        <v>0.1483530521010394</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>94189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77562</v>
+        <v>75174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113998</v>
+        <v>112216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1346785811150774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1109030104136314</v>
+        <v>0.1074891638050472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1630028412298075</v>
+        <v>0.160453465000179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -3155,19 +3155,19 @@
         <v>83304</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67661</v>
+        <v>67241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101337</v>
+        <v>102056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1203882815817862</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09778074587319099</v>
+        <v>0.09717391404213258</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1464489262166679</v>
+        <v>0.1474878027030383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -3176,19 +3176,19 @@
         <v>177494</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154460</v>
+        <v>151380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202946</v>
+        <v>201924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.127571439824179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1110159853486174</v>
+        <v>0.1088025120791042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1458648924872799</v>
+        <v>0.1451304190880186</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>88309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71762</v>
+        <v>71459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>107009</v>
+        <v>106553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1262700992465499</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1026099026763398</v>
+        <v>0.1021774864864952</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530083540828074</v>
+        <v>0.1523568572710563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -3226,19 +3226,19 @@
         <v>96186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79823</v>
+        <v>79264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114990</v>
+        <v>115749</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1390039606796124</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1153578081825438</v>
+        <v>0.1145493511401532</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1661786343616517</v>
+        <v>0.1672759640606675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -3247,19 +3247,19 @@
         <v>184495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159521</v>
+        <v>157820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211423</v>
+        <v>212878</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1326031612074039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1146537980107448</v>
+        <v>0.113430963747952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1519574311080509</v>
+        <v>0.1530030477647998</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>208247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>184952</v>
+        <v>184147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>233884</v>
+        <v>231991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2977656559694538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2644569936975468</v>
+        <v>0.2633060536929768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3344238582793927</v>
+        <v>0.3317164085259777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>215</v>
@@ -3297,19 +3297,19 @@
         <v>235761</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211282</v>
+        <v>212099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>263317</v>
+        <v>262208</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3407121107107594</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3053360981229744</v>
+        <v>0.3065175868692831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3805358354931979</v>
+        <v>0.3789327250893277</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>412</v>
@@ -3318,19 +3318,19 @@
         <v>444007</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>407207</v>
+        <v>408249</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>481525</v>
+        <v>476972</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3191246569532026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2926749783898268</v>
+        <v>0.2934238576375361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3460899616174214</v>
+        <v>0.3428174500156072</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>194637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>170438</v>
+        <v>170439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>220553</v>
+        <v>218599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.278305920242092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.243704425475057</v>
+        <v>0.2437052632920134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3153613661309704</v>
+        <v>0.3125678473855936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -3368,19 +3368,19 @@
         <v>181434</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159917</v>
+        <v>157996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>205749</v>
+        <v>206407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2622022159625141</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2311057809991069</v>
+        <v>0.2283304090628769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2973399666514165</v>
+        <v>0.2982911437107083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>358</v>
@@ -3389,19 +3389,19 @@
         <v>376072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>344177</v>
+        <v>344373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>412838</v>
+        <v>412519</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.270296899762488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2473729753010656</v>
+        <v>0.2475135493816203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2967222110191106</v>
+        <v>0.2964930087623716</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>113982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94571</v>
+        <v>95529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135753</v>
+        <v>135836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1629797434268269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1352245859742725</v>
+        <v>0.1365934692673474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1941089152365837</v>
+        <v>0.194228187528734</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -3439,19 +3439,19 @@
         <v>95279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77087</v>
+        <v>78720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114619</v>
+        <v>113596</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.137693431065328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1114026127979385</v>
+        <v>0.113763439777425</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1656436905693218</v>
+        <v>0.1641650002655836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>201</v>
@@ -3460,19 +3460,19 @@
         <v>209261</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183757</v>
+        <v>184630</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>237294</v>
+        <v>236714</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1504038422527265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1320731401135775</v>
+        <v>0.1327002326003973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1705518649892184</v>
+        <v>0.1701353081070885</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>167145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142716</v>
+        <v>143419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193495</v>
+        <v>193064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1650088939178779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1408927724738374</v>
+        <v>0.1415864608461029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1910226476572925</v>
+        <v>0.1905967888479138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -3585,19 +3585,19 @@
         <v>133272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113057</v>
+        <v>112142</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155945</v>
+        <v>157437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.129116396929116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1095314888622788</v>
+        <v>0.1086450870242831</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1510828687598606</v>
+        <v>0.1525280955119733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -3606,19 +3606,19 @@
         <v>300416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263716</v>
+        <v>266602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>332715</v>
+        <v>333118</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1468938012959903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1289483689981391</v>
+        <v>0.1303598058625487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1626865840848522</v>
+        <v>0.1628839539143939</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>117101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96653</v>
+        <v>97288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138746</v>
+        <v>138642</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.115604835755735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09541765552820188</v>
+        <v>0.0960450377801971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1369728047297946</v>
+        <v>0.1368703599731727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -3656,19 +3656,19 @@
         <v>152245</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129814</v>
+        <v>129642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178199</v>
+        <v>177620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1474983336624095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1257667310321671</v>
+        <v>0.1255999289059891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1726431155091767</v>
+        <v>0.172081672553904</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -3677,19 +3677,19 @@
         <v>269347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240450</v>
+        <v>236665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>301282</v>
+        <v>301903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1317016168962693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1175719204936569</v>
+        <v>0.1157212187464931</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1473170867687844</v>
+        <v>0.1476206936550298</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>290028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>261986</v>
+        <v>259469</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>320090</v>
+        <v>319531</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2863224490753781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2586384212638039</v>
+        <v>0.2561536613842751</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3159999938851794</v>
+        <v>0.3154480559115589</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>299</v>
@@ -3727,19 +3727,19 @@
         <v>323159</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>294199</v>
+        <v>294452</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>355576</v>
+        <v>355710</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3130825120904474</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2850253603899597</v>
+        <v>0.2852708372452054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3444892957000046</v>
+        <v>0.3446183704425583</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>567</v>
@@ -3748,19 +3748,19 @@
         <v>613187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>571245</v>
+        <v>572896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>654548</v>
+        <v>655255</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2998283642597496</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2793199391174105</v>
+        <v>0.2801274691931113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3200523006759861</v>
+        <v>0.3203980819594777</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>263872</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>237333</v>
+        <v>234243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>297709</v>
+        <v>294371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2605007398333533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2343004995130768</v>
+        <v>0.2312500587553946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2939047892486526</v>
+        <v>0.2906098441828454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -3798,19 +3798,19 @@
         <v>245768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216893</v>
+        <v>216720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274962</v>
+        <v>275882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.238105287142053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2101298630940349</v>
+        <v>0.2099628273656623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2663881727997101</v>
+        <v>0.2672798087005378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>461</v>
@@ -3819,19 +3819,19 @@
         <v>509641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>468196</v>
+        <v>470019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>554468</v>
+        <v>550025</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2491976616457579</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2289322526791282</v>
+        <v>0.2298241003044452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2711166900906761</v>
+        <v>0.2689440444243116</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>174797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151113</v>
+        <v>152308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199737</v>
+        <v>202746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1725630814176557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1491818928554628</v>
+        <v>0.150362013197127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.197184724133059</v>
+        <v>0.2001558676347504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -3869,19 +3869,19 @@
         <v>177739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152293</v>
+        <v>152029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204495</v>
+        <v>202787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1721974701759741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1475447372913881</v>
+        <v>0.1472883125792091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1981190308372449</v>
+        <v>0.1964636154849681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>324</v>
@@ -3890,19 +3890,19 @@
         <v>352536</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>319671</v>
+        <v>316778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>389265</v>
+        <v>390796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1723785559022329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1563084453215336</v>
+        <v>0.1548938678219652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1903376085288692</v>
+        <v>0.191086458853255</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>115319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96431</v>
+        <v>96780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138000</v>
+        <v>135484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1533248472440274</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.128211631274197</v>
+        <v>0.128676345783069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1834810935623095</v>
+        <v>0.1801360136835302</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -4015,19 +4015,19 @@
         <v>110573</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90413</v>
+        <v>90584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135301</v>
+        <v>132765</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1426434237053639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1166355746789792</v>
+        <v>0.116857364490304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1745430497448502</v>
+        <v>0.1712724673847387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -4036,19 +4036,19 @@
         <v>225892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>198948</v>
+        <v>195758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258240</v>
+        <v>255015</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1479035316286525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1302617369755346</v>
+        <v>0.1281735340444702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1690837304486361</v>
+        <v>0.1669722193214495</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>111667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93786</v>
+        <v>92113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136008</v>
+        <v>133919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1484701009319983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1246952769025523</v>
+        <v>0.1224706709044138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1808324769342484</v>
+        <v>0.1780547486607745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -4086,19 +4086,19 @@
         <v>113418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94510</v>
+        <v>92895</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137363</v>
+        <v>135987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1463135314690892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1219214534915709</v>
+        <v>0.1198386851172824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.177203051860073</v>
+        <v>0.1754279153075582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -4107,19 +4107,19 @@
         <v>225085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>197457</v>
+        <v>199216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250285</v>
+        <v>256210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1473755423591086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1292855546572122</v>
+        <v>0.1304374579085292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1638754324069122</v>
+        <v>0.1677543111054434</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>196269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173103</v>
+        <v>170600</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>223653</v>
+        <v>223889</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2609539001165856</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2301540020871377</v>
+        <v>0.2268251639968376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2973632901813973</v>
+        <v>0.297677090607068</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>191</v>
@@ -4157,19 +4157,19 @@
         <v>208369</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>184633</v>
+        <v>183106</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>235096</v>
+        <v>232011</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2688043198356524</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2381836647619138</v>
+        <v>0.2362140451827527</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3032823244268961</v>
+        <v>0.2993034629438039</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>365</v>
@@ -4178,19 +4178,19 @@
         <v>404638</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>365581</v>
+        <v>371452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>442056</v>
+        <v>444221</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2649383505839012</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2393659531670442</v>
+        <v>0.2432097381621593</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2894382733639781</v>
+        <v>0.2908558013324284</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>193591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166714</v>
+        <v>169680</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219418</v>
+        <v>220139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2573932374972697</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2216591969684773</v>
+        <v>0.2256025015893264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2917329380686113</v>
+        <v>0.2926909491720147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>181</v>
@@ -4228,19 +4228,19 @@
         <v>195774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>170700</v>
+        <v>171014</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>222234</v>
+        <v>221901</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2525562297786638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2202099469950347</v>
+        <v>0.2206141093411406</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2866897496951334</v>
+        <v>0.2862602804235044</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>354</v>
@@ -4249,19 +4249,19 @@
         <v>389365</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356798</v>
+        <v>355436</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>425904</v>
+        <v>423271</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2549382327517273</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2336148828842797</v>
+        <v>0.2327230432165169</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2788624620343904</v>
+        <v>0.2771386084424824</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>135275</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116030</v>
+        <v>114451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160100</v>
+        <v>155826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1798579142101189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1542709140196289</v>
+        <v>0.1521710683543842</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2128647484035973</v>
+        <v>0.2071822804024163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -4299,19 +4299,19 @@
         <v>147036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123907</v>
+        <v>127957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>169435</v>
+        <v>170459</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1896824952112307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1598443583760105</v>
+        <v>0.1650688688569405</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2185778453972439</v>
+        <v>0.2198982909666857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>261</v>
@@ -4320,19 +4320,19 @@
         <v>282311</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>252271</v>
+        <v>248094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>316507</v>
+        <v>315509</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1848443426766103</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1651755829385355</v>
+        <v>0.1624403911164422</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2072342959332123</v>
+        <v>0.2065808949686901</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>136014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116976</v>
+        <v>113098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163211</v>
+        <v>158618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1439943657219669</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1238385102625309</v>
+        <v>0.1197334846409877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.172786521803374</v>
+        <v>0.1679238726401262</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -4445,19 +4445,19 @@
         <v>172467</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149002</v>
+        <v>148738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199737</v>
+        <v>196731</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1652235814409774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1427442308977521</v>
+        <v>0.142491169228237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1913481746682908</v>
+        <v>0.1884683798994528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -4466,19 +4466,19 @@
         <v>308481</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274305</v>
+        <v>275967</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>341385</v>
+        <v>342596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1551388272489078</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1379509880869822</v>
+        <v>0.1387869504508454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1716862686838958</v>
+        <v>0.1722955840406894</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>138048</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>115371</v>
+        <v>116103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161878</v>
+        <v>161987</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1461473372421851</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1221398887806028</v>
+        <v>0.1229143497942456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1713748394310381</v>
+        <v>0.1714911816950017</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>153</v>
@@ -4516,19 +4516,19 @@
         <v>160239</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>136963</v>
+        <v>136277</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>184306</v>
+        <v>185976</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1535096662557421</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1312110251053805</v>
+        <v>0.130553670333937</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1765653242018607</v>
+        <v>0.1781651151177495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>284</v>
@@ -4537,19 +4537,19 @@
         <v>298288</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>264455</v>
+        <v>266353</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>330965</v>
+        <v>331599</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1500122559243573</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1329974425157713</v>
+        <v>0.1339520496539164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.166446210321216</v>
+        <v>0.1667648952257272</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>241676</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>212356</v>
+        <v>213981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>270014</v>
+        <v>271328</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2558549212225203</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2248150085977968</v>
+        <v>0.2265355917164879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.285855766911559</v>
+        <v>0.2872461882326145</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>235</v>
@@ -4587,19 +4587,19 @@
         <v>245349</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>217547</v>
+        <v>217374</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>270110</v>
+        <v>275300</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.235044577734549</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2084102096533512</v>
+        <v>0.2082449753388383</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2587657480528694</v>
+        <v>0.2637378253276426</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>470</v>
@@ -4608,19 +4608,19 @@
         <v>487025</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>450780</v>
+        <v>446793</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>528619</v>
+        <v>526827</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2449303503182622</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2267025271043903</v>
+        <v>0.2246974558496764</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2658484287817117</v>
+        <v>0.264947289136783</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>221939</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>194318</v>
+        <v>199179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>248672</v>
+        <v>252269</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2349600151530772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2057186554071747</v>
+        <v>0.2108645463775066</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2632611383787061</v>
+        <v>0.2670695539507829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -4658,19 +4658,19 @@
         <v>254152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>226534</v>
+        <v>227745</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>284103</v>
+        <v>281951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2434784188527861</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2170199189763357</v>
+        <v>0.2181800935149703</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.272171176842484</v>
+        <v>0.2701096703978758</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>456</v>
@@ -4679,19 +4679,19 @@
         <v>476091</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>439578</v>
+        <v>434995</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>517340</v>
+        <v>513801</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2394318253018311</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2210688699178217</v>
+        <v>0.2187639964906029</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2601761019781218</v>
+        <v>0.25839645578813</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>206904</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>183022</v>
+        <v>182175</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>237190</v>
+        <v>232057</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2190433606602506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1937597843659656</v>
+        <v>0.1928628463079787</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2511053212581134</v>
+        <v>0.2456721044419451</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>203</v>
@@ -4729,19 +4729,19 @@
         <v>211632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>184090</v>
+        <v>187097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>237253</v>
+        <v>241434</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2027437557159453</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1763587771122624</v>
+        <v>0.179239561796971</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2272889253723871</v>
+        <v>0.2312947586471215</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>405</v>
@@ -4750,19 +4750,19 @@
         <v>418536</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>383761</v>
+        <v>382958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457635</v>
+        <v>456152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2104867412066417</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1929977990452944</v>
+        <v>0.1925939922323386</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2301498891418777</v>
+        <v>0.2294040206992685</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>512667</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>469819</v>
+        <v>471754</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>559788</v>
+        <v>559255</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1503859646414166</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.137816807730355</v>
+        <v>0.1383845178667978</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1642084656257641</v>
+        <v>0.1640521271232371</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>460</v>
@@ -4875,19 +4875,19 @@
         <v>499616</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>458595</v>
+        <v>460328</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>541467</v>
+        <v>544485</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1410086987513474</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.129431241291185</v>
+        <v>0.1299203994373133</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1528205151571597</v>
+        <v>0.1536724121258947</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>935</v>
@@ -4896,19 +4896,19 @@
         <v>1012283</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>954978</v>
+        <v>952294</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1077157</v>
+        <v>1078189</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1456068610109255</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1373640685236396</v>
+        <v>0.1369780091585976</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1549383557726316</v>
+        <v>0.1550867751680127</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>455125</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>415679</v>
+        <v>411423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>500461</v>
+        <v>502689</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1335066429125479</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1219353314514161</v>
+        <v>0.12068700117578</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1468054332545632</v>
+        <v>0.1474589362903544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>480</v>
@@ -4946,19 +4946,19 @@
         <v>522088</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481453</v>
+        <v>479916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>568861</v>
+        <v>567528</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1473511880653194</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.135882410419038</v>
+        <v>0.1354487823037414</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1605519286881452</v>
+        <v>0.1601758739594061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>908</v>
@@ -4967,19 +4967,19 @@
         <v>977214</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>916445</v>
+        <v>919942</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1033683</v>
+        <v>1041793</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1405624859245477</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1318214592010389</v>
+        <v>0.1323244811698115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1486850300744614</v>
+        <v>0.1498515379663919</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>936220</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>883983</v>
+        <v>883441</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>990815</v>
+        <v>992464</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2746309904027314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2593077098411296</v>
+        <v>0.2591488148472544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.290646068660726</v>
+        <v>0.291129555229586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>940</v>
@@ -5017,19 +5017,19 @@
         <v>1012637</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>958199</v>
+        <v>956577</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1071535</v>
+        <v>1065993</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2858007714340062</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2704364192058306</v>
+        <v>0.269978718758674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3024237306471957</v>
+        <v>0.300859536253911</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1814</v>
@@ -5038,19 +5038,19 @@
         <v>1948857</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1872650</v>
+        <v>1868784</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2027932</v>
+        <v>2020818</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2803236455651374</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2693620001509195</v>
+        <v>0.2688059564986485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2916978383730554</v>
+        <v>0.2906745809301508</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>874039</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>822266</v>
+        <v>823914</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>925781</v>
+        <v>927003</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2563909818438238</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2412038726801396</v>
+        <v>0.241687070718791</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2715687571705351</v>
+        <v>0.2719272676956242</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>813</v>
@@ -5088,19 +5088,19 @@
         <v>877129</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>822842</v>
+        <v>816938</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>929217</v>
+        <v>925390</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2475558504865062</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2322341754637389</v>
+        <v>0.230567838445772</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2622567589601465</v>
+        <v>0.2611766481227001</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1629</v>
@@ -5109,19 +5109,19 @@
         <v>1751169</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1677072</v>
+        <v>1674636</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1823806</v>
+        <v>1831433</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2518881759257001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2412300744263404</v>
+        <v>0.2408796637366002</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2623363682956473</v>
+        <v>0.2634334172694359</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>630958</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>590529</v>
+        <v>584364</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>678561</v>
+        <v>679949</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1850854201994803</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1732260689800672</v>
+        <v>0.1714174410245073</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1990494174166163</v>
+        <v>0.1994563195397822</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>592</v>
@@ -5159,19 +5159,19 @@
         <v>631686</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>584443</v>
+        <v>585203</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>676961</v>
+        <v>678444</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1782834912628208</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1649499220370355</v>
+        <v>0.16516416758483</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1910615845875205</v>
+        <v>0.1914799955563913</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1191</v>
@@ -5180,19 +5180,19 @@
         <v>1262644</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1201634</v>
+        <v>1195531</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1334735</v>
+        <v>1332230</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1816188315736892</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1728430448167906</v>
+        <v>0.1719652721892395</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.191988301755305</v>
+        <v>0.1916280057975292</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>142978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120652</v>
+        <v>123865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162489</v>
+        <v>166692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2118817507052864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1787962799640489</v>
+        <v>0.1835583686124902</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2407954603934154</v>
+        <v>0.2470247963193117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -5545,19 +5545,19 @@
         <v>156276</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135642</v>
+        <v>134908</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182193</v>
+        <v>179904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2322639109804548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2015970437287637</v>
+        <v>0.2005054488822283</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2707823697715571</v>
+        <v>0.2673801420021263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>286</v>
@@ -5566,19 +5566,19 @@
         <v>299254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270167</v>
+        <v>268450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332254</v>
+        <v>328354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2220580014055848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2004739515768512</v>
+        <v>0.1992002299097466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2465450752755672</v>
+        <v>0.2436510638587374</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>152308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130202</v>
+        <v>131637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174522</v>
+        <v>174803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2257087145744522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.192949721252559</v>
+        <v>0.1950751927997909</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2586282934351793</v>
+        <v>0.2590438028665325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -5616,19 +5616,19 @@
         <v>140914</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119152</v>
+        <v>121695</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>164320</v>
+        <v>163453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2094316397047323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.177088346107021</v>
+        <v>0.1808680628424343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2442193127111259</v>
+        <v>0.2429305074498833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>289</v>
@@ -5637,19 +5637,19 @@
         <v>293222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264733</v>
+        <v>261566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324490</v>
+        <v>321697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2175820198421183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.19644179808596</v>
+        <v>0.1940922584940539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.240784171848873</v>
+        <v>0.2387118622847805</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>156412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135028</v>
+        <v>136602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180369</v>
+        <v>180499</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2317906942173451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2001008075409508</v>
+        <v>0.2024338415542729</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2672927702940529</v>
+        <v>0.2674849707702771</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>174</v>
@@ -5687,19 +5687,19 @@
         <v>174471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151545</v>
+        <v>152465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>196910</v>
+        <v>197626</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2593058279807028</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2252315917953389</v>
+        <v>0.2265990538751368</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2926549797523943</v>
+        <v>0.2937194753935458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>326</v>
@@ -5708,19 +5708,19 @@
         <v>330883</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>300551</v>
+        <v>296109</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>364203</v>
+        <v>358448</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2455282419280899</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2230202980926111</v>
+        <v>0.2197239426764497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2702527386434655</v>
+        <v>0.2659823661339921</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>140811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118619</v>
+        <v>119563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159552</v>
+        <v>162053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2086714050587718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1757838857446473</v>
+        <v>0.1771827209947033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2364439242960406</v>
+        <v>0.2401499750139773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -5758,19 +5758,19 @@
         <v>131602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110870</v>
+        <v>113253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151599</v>
+        <v>152741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1955922218388451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.164778797423404</v>
+        <v>0.1683213645594279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2253130399989843</v>
+        <v>0.2270099025804443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -5779,19 +5779,19 @@
         <v>272414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>242442</v>
+        <v>244508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>303478</v>
+        <v>304294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.202141329463043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1799014484007576</v>
+        <v>0.1814340456540642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2251921747327294</v>
+        <v>0.225797912059086</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>82290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65911</v>
+        <v>65795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101557</v>
+        <v>99910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1219474354441445</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09767484977087779</v>
+        <v>0.09750277234459993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.150499242094889</v>
+        <v>0.148059048379081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -5829,19 +5829,19 @@
         <v>69576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53878</v>
+        <v>54387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87221</v>
+        <v>87146</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.103406399495265</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08007622540982541</v>
+        <v>0.08083234251360731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1296309611604917</v>
+        <v>0.1295195604774607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>144</v>
@@ -5850,19 +5850,19 @@
         <v>151866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>129938</v>
+        <v>130669</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176734</v>
+        <v>176458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.112690407361164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09641899684080335</v>
+        <v>0.09696151130436721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1311434125638528</v>
+        <v>0.1309384013056455</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>181497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155817</v>
+        <v>157519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203587</v>
+        <v>207123</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1778540776284765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1526893406652464</v>
+        <v>0.1543575429277823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1995003669470694</v>
+        <v>0.2029649756573867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -5975,19 +5975,19 @@
         <v>197480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171269</v>
+        <v>174235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224919</v>
+        <v>225659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1893546939322463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1642219690580163</v>
+        <v>0.1670654598790053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2156645958481468</v>
+        <v>0.2163741950341921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -5996,19 +5996,19 @@
         <v>378978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>344726</v>
+        <v>346177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>421207</v>
+        <v>415308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1836668901503434</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1670673498456844</v>
+        <v>0.1677705602453798</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2041327736551234</v>
+        <v>0.2012739040721598</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>214470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>190005</v>
+        <v>187941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>245937</v>
+        <v>239885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2101649023568338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1861911528386444</v>
+        <v>0.1841682386112808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.241000489863805</v>
+        <v>0.2350700955423705</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -6046,19 +6046,19 @@
         <v>225857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>200014</v>
+        <v>201360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255062</v>
+        <v>254852</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2165635197250309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1917836749330243</v>
+        <v>0.1930748339715578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2445668614405584</v>
+        <v>0.2443651128105608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>414</v>
@@ -6067,19 +6067,19 @@
         <v>440327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>401203</v>
+        <v>403646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>475914</v>
+        <v>481644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2133989867031048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1944380112514298</v>
+        <v>0.1956222010105881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2306456531758</v>
+        <v>0.2334227709882772</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>280122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>251751</v>
+        <v>251821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>308061</v>
+        <v>313159</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2744995476831966</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2466977561725195</v>
+        <v>0.2467657982213188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3018769706668472</v>
+        <v>0.3068731949076353</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>259</v>
@@ -6117,19 +6117,19 @@
         <v>275795</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>249683</v>
+        <v>246354</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>302496</v>
+        <v>304093</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2644469498813606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2394092596497508</v>
+        <v>0.2362169958031075</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2900490095415134</v>
+        <v>0.2915800742516437</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>521</v>
@@ -6138,19 +6138,19 @@
         <v>555918</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>517767</v>
+        <v>515611</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>597230</v>
+        <v>594531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2694186142065575</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2509294004082699</v>
+        <v>0.2498847619740164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2894401404775252</v>
+        <v>0.2881320630498515</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>216246</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190436</v>
+        <v>189733</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>242402</v>
+        <v>244300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.211904925518249</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1866135235610838</v>
+        <v>0.1859248945919216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2375360917430255</v>
+        <v>0.2393966149810058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -6188,19 +6188,19 @@
         <v>219560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192004</v>
+        <v>192222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>246194</v>
+        <v>249199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2105261049284846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1841039631661734</v>
+        <v>0.184312607587185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2360640092244601</v>
+        <v>0.2389456002173335</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>411</v>
@@ -6209,19 +6209,19 @@
         <v>435806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>399133</v>
+        <v>399848</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>475885</v>
+        <v>471033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2112080215108556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.193435057537758</v>
+        <v>0.193781498357178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2306316519438727</v>
+        <v>0.2282801219137964</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>128149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108949</v>
+        <v>106129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149991</v>
+        <v>149328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1255765468132441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1067620721630329</v>
+        <v>0.1039991654503138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1469797682234611</v>
+        <v>0.1463303163433496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -6259,19 +6259,19 @@
         <v>124220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104437</v>
+        <v>105014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147102</v>
+        <v>145927</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1191087315328777</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1001399446973201</v>
+        <v>0.1006927402894575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1410492887545298</v>
+        <v>0.139922295498349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>232</v>
@@ -6280,19 +6280,19 @@
         <v>252369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225119</v>
+        <v>221750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287491</v>
+        <v>287011</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1223074874291385</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1091013913638962</v>
+        <v>0.1074682860202755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.13932883337357</v>
+        <v>0.1390965724742637</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>162214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138829</v>
+        <v>140920</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186196</v>
+        <v>187705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2142876902887597</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1833957108243993</v>
+        <v>0.1861582594829747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2459682169324318</v>
+        <v>0.2479618175240318</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -6405,19 +6405,19 @@
         <v>165152</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>142316</v>
+        <v>144445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>189438</v>
+        <v>193371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2115582180810713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1823049003433828</v>
+        <v>0.185032441520694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2426678056139831</v>
+        <v>0.2477060029980574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -6426,19 +6426,19 @@
         <v>327366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>294630</v>
+        <v>294214</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>362334</v>
+        <v>360915</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2129019582408421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1916120453371168</v>
+        <v>0.1913412213860362</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2356428680724904</v>
+        <v>0.2347201774774021</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>122287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101456</v>
+        <v>100281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145386</v>
+        <v>144783</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1615434241756535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1340259658725595</v>
+        <v>0.132472722355558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1920578728810811</v>
+        <v>0.1912614804223994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -6476,19 +6476,19 @@
         <v>135840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115437</v>
+        <v>116464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160462</v>
+        <v>161591</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1740098729882813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1478737470430954</v>
+        <v>0.1491890746900414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2055501522605357</v>
+        <v>0.2069956094931644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>235</v>
@@ -6497,19 +6497,19 @@
         <v>258127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>231624</v>
+        <v>230213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>290224</v>
+        <v>291726</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1678725443603992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1506358750144607</v>
+        <v>0.1497187179094238</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1887464279539641</v>
+        <v>0.1897234481164087</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>209998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>184063</v>
+        <v>184627</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>234226</v>
+        <v>237390</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2774109833719666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.243150547703233</v>
+        <v>0.2438962413699073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3094174664268967</v>
+        <v>0.3135966845560053</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>160</v>
@@ -6547,19 +6547,19 @@
         <v>171697</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146265</v>
+        <v>148221</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>194872</v>
+        <v>195480</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2199413301316348</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1873641804794577</v>
+        <v>0.1898699924686425</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2496292579505316</v>
+        <v>0.2504076211517675</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>354</v>
@@ -6568,19 +6568,19 @@
         <v>381694</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>348575</v>
+        <v>350395</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>417468</v>
+        <v>417511</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2482340824115841</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2266949425386804</v>
+        <v>0.227878443840329</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.271499363863316</v>
+        <v>0.2715271391251787</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>176366</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154498</v>
+        <v>153292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200785</v>
+        <v>201833</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2329833225762656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2040948954427141</v>
+        <v>0.2025015325739673</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2652408835360691</v>
+        <v>0.2666253930934247</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -6618,19 +6618,19 @@
         <v>194876</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172138</v>
+        <v>172121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218687</v>
+        <v>218811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2496344464722099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2205064217095233</v>
+        <v>0.2204850049673518</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2801356152198231</v>
+        <v>0.2802938720505268</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>352</v>
@@ -6639,19 +6639,19 @@
         <v>371243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>335853</v>
+        <v>339973</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>406112</v>
+        <v>407044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2414369701171572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.21842149050811</v>
+        <v>0.2211008298794941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.264114078089167</v>
+        <v>0.2647201483266869</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>86126</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68257</v>
+        <v>69373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104851</v>
+        <v>104673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1137745795873546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09016842643014729</v>
+        <v>0.09164372289653745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1385097200719605</v>
+        <v>0.1382749801727949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -6689,19 +6689,19 @@
         <v>113082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93607</v>
+        <v>94586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133087</v>
+        <v>134231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1448561323268026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1199092045481672</v>
+        <v>0.1211641001463949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.170482535937783</v>
+        <v>0.1719489300664578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -6710,19 +6710,19 @@
         <v>199208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>171315</v>
+        <v>173941</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226295</v>
+        <v>224582</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1295544448700174</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1114139995970639</v>
+        <v>0.1131220303093673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1471705051348788</v>
+        <v>0.1460565315514769</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>177116</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153139</v>
+        <v>154400</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200720</v>
+        <v>200328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1901411963027919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1644009776911645</v>
+        <v>0.1657549873785715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2154814533099244</v>
+        <v>0.2150605776176854</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -6835,19 +6835,19 @@
         <v>184971</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159619</v>
+        <v>160802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212400</v>
+        <v>214439</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.17756775666839</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1532309082655235</v>
+        <v>0.1543662970627891</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2038993634148415</v>
+        <v>0.2058568491683999</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>333</v>
@@ -6856,19 +6856,19 @@
         <v>362086</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>330803</v>
+        <v>326394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>399098</v>
+        <v>404382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1835033853650921</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1676489212258398</v>
+        <v>0.1654148781524978</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2022608719336249</v>
+        <v>0.2049385058821659</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>153828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>130613</v>
+        <v>131558</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176644</v>
+        <v>175766</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1651406233670357</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1402188565123634</v>
+        <v>0.141232912314844</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1896353691031198</v>
+        <v>0.1886922017977622</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>180</v>
@@ -6906,19 +6906,19 @@
         <v>198317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>169949</v>
+        <v>172112</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>224312</v>
+        <v>223833</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1903800826961769</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1631475459349889</v>
+        <v>0.1652239632465674</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2153342627542523</v>
+        <v>0.2148746241395164</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>331</v>
@@ -6927,19 +6927,19 @@
         <v>352145</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>320759</v>
+        <v>316062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>388600</v>
+        <v>384398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1784651204074649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1625590025252322</v>
+        <v>0.1601782657190683</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1969404031917077</v>
+        <v>0.1948106899633537</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>245425</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>220643</v>
+        <v>218689</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>273369</v>
+        <v>273555</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2634743536377149</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2368699925427743</v>
+        <v>0.2347721024741004</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2934733726380684</v>
+        <v>0.2936726723978996</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>262</v>
@@ -6977,19 +6977,19 @@
         <v>281630</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>247176</v>
+        <v>252848</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>308032</v>
+        <v>309351</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2703584433127196</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2372830132934514</v>
+        <v>0.242728243538501</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2957040878166509</v>
+        <v>0.2969704208554783</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>508</v>
@@ -6998,19 +6998,19 @@
         <v>527055</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>489141</v>
+        <v>486231</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>569885</v>
+        <v>568822</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2671086245349025</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2478942233551655</v>
+        <v>0.2464193795417388</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2888144382159045</v>
+        <v>0.2882760344703195</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>237307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>211014</v>
+        <v>210552</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264277</v>
+        <v>265571</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.25475954980286</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2265324233463509</v>
+        <v>0.2260361411385942</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2837129556007099</v>
+        <v>0.2851018521386936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>239</v>
@@ -7048,19 +7048,19 @@
         <v>252418</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224151</v>
+        <v>228319</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>283058</v>
+        <v>282595</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2423153395589853</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2151799994130696</v>
+        <v>0.2191812930008425</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2717296843483934</v>
+        <v>0.2712844724160794</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>478</v>
@@ -7069,19 +7069,19 @@
         <v>489725</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>453041</v>
+        <v>454471</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>529845</v>
+        <v>527134</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2481899620631757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2295986446877453</v>
+        <v>0.2303232222923952</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2685227553448499</v>
+        <v>0.2671485723454005</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>117819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98317</v>
+        <v>99100</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140532</v>
+        <v>139806</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1264842768895975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1055480096184496</v>
+        <v>0.1063880289012818</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1508667873779029</v>
+        <v>0.1500878604083679</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -7119,19 +7119,19 @@
         <v>124355</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103495</v>
+        <v>104337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146602</v>
+        <v>146616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1193783777637282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09935265303094983</v>
+        <v>0.1001616211805967</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1407345076272041</v>
+        <v>0.1407483431375315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>233</v>
@@ -7140,19 +7140,19 @@
         <v>242175</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214227</v>
+        <v>211753</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>274691</v>
+        <v>269967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1227329076293648</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1085688904786561</v>
+        <v>0.1073150409655629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1392118253353536</v>
+        <v>0.1368176691050076</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>663805</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>616217</v>
+        <v>618088</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>708756</v>
+        <v>709538</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1961730470312623</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1821096656532982</v>
+        <v>0.1826625168808716</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2094575520772003</v>
+        <v>0.2096886734818641</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>630</v>
@@ -7265,19 +7265,19 @@
         <v>703880</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>654731</v>
+        <v>653051</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>749719</v>
+        <v>755278</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1989434204581439</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1850520589853859</v>
+        <v>0.1845772328505091</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2118994379560518</v>
+        <v>0.2134705713228321</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1264</v>
@@ -7286,19 +7286,19 @@
         <v>1367684</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1297872</v>
+        <v>1300474</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1434708</v>
+        <v>1440954</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1975891157120096</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1875033840057152</v>
+        <v>0.187879206019567</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2072719747234024</v>
+        <v>0.2081743203533997</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>642893</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>599471</v>
+        <v>601110</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>690246</v>
+        <v>692271</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1899930374300301</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1771605696148255</v>
+        <v>0.1776448858464733</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2039873481142828</v>
+        <v>0.2045855659628171</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>662</v>
@@ -7336,19 +7336,19 @@
         <v>700928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>651802</v>
+        <v>652753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>751069</v>
+        <v>749803</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.198109201436996</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1842241994722619</v>
+        <v>0.1844929372979037</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2122809915755769</v>
+        <v>0.2119230788457052</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1269</v>
@@ -7357,19 +7357,19 @@
         <v>1343821</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1273093</v>
+        <v>1269329</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1408689</v>
+        <v>1409074</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1941415921145911</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.183923484686822</v>
+        <v>0.1833797995602055</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2035130299782122</v>
+        <v>0.2035686070052324</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>891958</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>843803</v>
+        <v>843203</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>943607</v>
+        <v>941969</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2635987159465925</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2493676264019192</v>
+        <v>0.2491902787032831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2788626311851724</v>
+        <v>0.2783783771493494</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>855</v>
@@ -7407,19 +7407,19 @@
         <v>903593</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>849474</v>
+        <v>847165</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>962327</v>
+        <v>951773</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.25538997395129</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2400940836148112</v>
+        <v>0.2394413985652503</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2719904710708327</v>
+        <v>0.2690076993450748</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1709</v>
@@ -7428,19 +7428,19 @@
         <v>1795550</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1728239</v>
+        <v>1717253</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1877518</v>
+        <v>1863176</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2594028402804851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2496783156711064</v>
+        <v>0.248091169629876</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2712447213445435</v>
+        <v>0.2691726421162645</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>770731</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>719884</v>
+        <v>717185</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>821972</v>
+        <v>816663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2277727423747732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2127460229621717</v>
+        <v>0.2119483810864563</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2429160759995985</v>
+        <v>0.2413468597538602</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>773</v>
@@ -7478,19 +7478,19 @@
         <v>798457</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>749969</v>
+        <v>747235</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>851950</v>
+        <v>846643</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2256744675815463</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2119700127533677</v>
+        <v>0.2111972367954934</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2407937510645935</v>
+        <v>0.23929368911833</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1514</v>
@@ -7499,19 +7499,19 @@
         <v>1569187</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1500206</v>
+        <v>1502235</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1644270</v>
+        <v>1641912</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2267002150434543</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2167345277079294</v>
+        <v>0.2170276426436439</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.237547356559781</v>
+        <v>0.2372066753789322</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>414385</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>376442</v>
+        <v>376656</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>451122</v>
+        <v>456464</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.122462457217342</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1112491696995907</v>
+        <v>0.1113125304193371</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.133319320001364</v>
+        <v>0.1348980277623255</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>412</v>
@@ -7549,19 +7549,19 @@
         <v>431233</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>391457</v>
+        <v>392577</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>473502</v>
+        <v>474379</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1218829365720239</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1106406914376255</v>
+        <v>0.1109574067094238</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1338299037074502</v>
+        <v>0.1340777202650588</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>797</v>
@@ -7570,19 +7570,19 @@
         <v>845618</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>794379</v>
+        <v>788732</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>904320</v>
+        <v>903502</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.12216623684946</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1147638113954893</v>
+        <v>0.1139479385199963</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1306469629849763</v>
+        <v>0.1305287270062563</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>220212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>195706</v>
+        <v>195536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248359</v>
+        <v>246239</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3207026571247891</v>
+        <v>0.3207026571247892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2850140296046092</v>
+        <v>0.2847659381561078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3616936565735938</v>
+        <v>0.3586065293070455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>504</v>
@@ -7935,19 +7935,19 @@
         <v>250778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>230699</v>
+        <v>232890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270939</v>
+        <v>272668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3433189228359657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3158302293434101</v>
+        <v>0.31882948446524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3709196659528959</v>
+        <v>0.3732865635452332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>774</v>
@@ -7956,19 +7956,19 @@
         <v>470990</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438678</v>
+        <v>438705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>505715</v>
+        <v>506264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3323602848386527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3095587327394719</v>
+        <v>0.309577414908472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3568639198025326</v>
+        <v>0.3572516809683001</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>146764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126039</v>
+        <v>125497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171170</v>
+        <v>172330</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.213737387554925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1835544717862887</v>
+        <v>0.182766161278231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2492802877250156</v>
+        <v>0.2509709387503946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -8006,19 +8006,19 @@
         <v>162098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144022</v>
+        <v>143360</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181887</v>
+        <v>180700</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2219139699171127</v>
+        <v>0.2219139699171128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1971676225336303</v>
+        <v>0.1962616983727256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2490059191108302</v>
+        <v>0.247380688239576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>416</v>
@@ -8027,19 +8027,19 @@
         <v>308862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>281221</v>
+        <v>279937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>340594</v>
+        <v>337468</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.217952033525547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1984474688075029</v>
+        <v>0.197541074462266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2403445084981867</v>
+        <v>0.2381388615516023</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>184640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160216</v>
+        <v>159880</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211504</v>
+        <v>209881</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2688983960494123</v>
+        <v>0.2688983960494124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2333282895721322</v>
+        <v>0.2328393004432242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3080214802029143</v>
+        <v>0.3056568692057512</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>301</v>
@@ -8077,19 +8077,19 @@
         <v>198488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>178113</v>
+        <v>177256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>218055</v>
+        <v>220589</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2717322382058061</v>
+        <v>0.2717322382058062</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2438386635444345</v>
+        <v>0.2426662848344694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2985200636302051</v>
+        <v>0.3019887476103876</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>480</v>
@@ -8098,19 +8098,19 @@
         <v>383128</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>352232</v>
+        <v>351894</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>419209</v>
+        <v>417078</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2703591092051994</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2485570173538662</v>
+        <v>0.2483183479851546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2958201086625076</v>
+        <v>0.2943162020006993</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>63194</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48987</v>
+        <v>47274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80515</v>
+        <v>81494</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09203221158701762</v>
+        <v>0.09203221158701763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07134127056514183</v>
+        <v>0.06884703093630185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1172564228350017</v>
+        <v>0.1186819015015778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -8148,19 +8148,19 @@
         <v>49648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38709</v>
+        <v>38778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63639</v>
+        <v>63544</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06796826421576072</v>
+        <v>0.06796826421576073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05299273606650586</v>
+        <v>0.05308696385692178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08712281514478749</v>
+        <v>0.08699243020870441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -8169,19 +8169,19 @@
         <v>112842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93959</v>
+        <v>92931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133111</v>
+        <v>134478</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07962837165328865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06630301515194542</v>
+        <v>0.06557778040621941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09393163228132853</v>
+        <v>0.09489587950722786</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>71844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53884</v>
+        <v>53639</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94519</v>
+        <v>97960</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1046293476838557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07847258345301733</v>
+        <v>0.07811589946952699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1376518651261444</v>
+        <v>0.1426624806395494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>97</v>
@@ -8219,19 +8219,19 @@
         <v>69442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55812</v>
+        <v>54876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86369</v>
+        <v>84452</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09506660482535484</v>
+        <v>0.09506660482535485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07640720273350572</v>
+        <v>0.07512541535459098</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1182400007628525</v>
+        <v>0.1156156525376634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -8240,19 +8240,19 @@
         <v>141286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>119927</v>
+        <v>118628</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170638</v>
+        <v>171695</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09970020077731231</v>
+        <v>0.0997002007773123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08462826374755583</v>
+        <v>0.08371130567115229</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1204126329194403</v>
+        <v>0.1211584906926243</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>260301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229551</v>
+        <v>230650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289570</v>
+        <v>291007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2483841699684596</v>
+        <v>0.2483841699684595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2190418712164976</v>
+        <v>0.2200908507680051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2763137049831028</v>
+        <v>0.2776843459655881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>474</v>
@@ -8365,19 +8365,19 @@
         <v>295604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>269628</v>
+        <v>271350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>322805</v>
+        <v>321228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2764622766860377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2521683048348982</v>
+        <v>0.2537788705318185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3019021900863054</v>
+        <v>0.3004271924711488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>754</v>
@@ -8386,19 +8386,19 @@
         <v>555904</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>517091</v>
+        <v>517915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>598174</v>
+        <v>596433</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2625642029010097</v>
+        <v>0.2625642029010098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2442321579736348</v>
+        <v>0.2446210532249943</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2825288160579121</v>
+        <v>0.281706649436239</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>285472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253494</v>
+        <v>253795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>319180</v>
+        <v>316687</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2724033409725501</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2418895290180524</v>
+        <v>0.2421761512952472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3045680792935338</v>
+        <v>0.3021889676432916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>446</v>
@@ -8436,19 +8436,19 @@
         <v>326987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300700</v>
+        <v>298691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>355391</v>
+        <v>352447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3058135382957744</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.281228867455341</v>
+        <v>0.2793495081300761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3323782565472924</v>
+        <v>0.3296246796949749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>712</v>
@@ -8457,19 +8457,19 @@
         <v>612459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>567975</v>
+        <v>570199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657595</v>
+        <v>656822</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2892761915209002</v>
+        <v>0.2892761915209003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2682653066563737</v>
+        <v>0.2693159296312372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3105944301838693</v>
+        <v>0.3102294431164153</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>296058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264233</v>
+        <v>265287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>327593</v>
+        <v>330851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2825046680816991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2521361598038663</v>
+        <v>0.2531420865342722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3125961911434146</v>
+        <v>0.3157049966135566</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>402</v>
@@ -8507,19 +8507,19 @@
         <v>295738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>267472</v>
+        <v>271057</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>319041</v>
+        <v>323125</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2765879003612067</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2501517721232986</v>
+        <v>0.2535053363757171</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2983820207654877</v>
+        <v>0.3022010521203763</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>662</v>
@@ -8528,19 +8528,19 @@
         <v>591796</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546771</v>
+        <v>547696</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>632501</v>
+        <v>627695</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2795165762571778</v>
+        <v>0.2795165762571779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2582501630205079</v>
+        <v>0.2586873503135154</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2987420475929759</v>
+        <v>0.296472503886917</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>131978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108735</v>
+        <v>109142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161083</v>
+        <v>161917</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1259360630714858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1037568507516998</v>
+        <v>0.1041450435600304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1537087500777894</v>
+        <v>0.154504704908843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -8578,19 +8578,19 @@
         <v>85541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69557</v>
+        <v>68243</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105194</v>
+        <v>102887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08000212321182128</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06505294482549677</v>
+        <v>0.06382446095893153</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09838245374635225</v>
+        <v>0.09622464425275638</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -8599,19 +8599,19 @@
         <v>217519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188786</v>
+        <v>188330</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250890</v>
+        <v>250625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1027384598112897</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08916711439324349</v>
+        <v>0.08895200449300358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1185002597127429</v>
+        <v>0.1183751312044923</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>74167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54754</v>
+        <v>55415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97817</v>
+        <v>100133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07077175790580544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05224715461975019</v>
+        <v>0.05287802043409429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09333876539617361</v>
+        <v>0.09554922575429824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -8649,19 +8649,19 @@
         <v>65367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50825</v>
+        <v>51549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81810</v>
+        <v>85649</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06113416144515981</v>
+        <v>0.06113416144515983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0475338812925863</v>
+        <v>0.04821057762397458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07651225934717198</v>
+        <v>0.08010316845593694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -8670,19 +8670,19 @@
         <v>139534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113723</v>
+        <v>115839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164311</v>
+        <v>171766</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06590456950962242</v>
+        <v>0.06590456950962245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05371343519832251</v>
+        <v>0.05471313661322921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07760705097434405</v>
+        <v>0.08112814173883899</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>254153</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228454</v>
+        <v>227403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283824</v>
+        <v>286048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3164757081384811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2844751300291763</v>
+        <v>0.2831665186517275</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3534219662301706</v>
+        <v>0.3561914020862947</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>323</v>
@@ -8795,19 +8795,19 @@
         <v>232116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211127</v>
+        <v>211849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>255738</v>
+        <v>258046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.286149109246972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2602748472471634</v>
+        <v>0.2611642730358568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3152699253306142</v>
+        <v>0.3181158903625051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>553</v>
@@ -8816,19 +8816,19 @@
         <v>486269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>449888</v>
+        <v>452155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>524210</v>
+        <v>525558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3012363364087427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2786987826736379</v>
+        <v>0.2801035272871523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3247400158500837</v>
+        <v>0.3255753912049187</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>179775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151596</v>
+        <v>155067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205613</v>
+        <v>208789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2238592611133004</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1887699201578177</v>
+        <v>0.1930917268199148</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2560329290756833</v>
+        <v>0.2599869889639929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>225</v>
@@ -8866,19 +8866,19 @@
         <v>173865</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154117</v>
+        <v>154845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195608</v>
+        <v>196335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2143379024040807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1899936597739171</v>
+        <v>0.1908906489094439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2411429460765583</v>
+        <v>0.2420383814941582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -8887,19 +8887,19 @@
         <v>353640</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321925</v>
+        <v>318992</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388690</v>
+        <v>391918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2190746980549415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1994277004582669</v>
+        <v>0.1976105228330185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2407873807568485</v>
+        <v>0.2427875202061119</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>243044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>214230</v>
+        <v>212609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>271363</v>
+        <v>277048</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3026429979651633</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2667628660049947</v>
+        <v>0.2647443193611363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3379058993766712</v>
+        <v>0.344985187244734</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>304</v>
@@ -8937,19 +8937,19 @@
         <v>250158</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224591</v>
+        <v>222809</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>274113</v>
+        <v>273733</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3083916736015455</v>
+        <v>0.3083916736015456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2768720573574545</v>
+        <v>0.2746761169236974</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3379228540751851</v>
+        <v>0.3374540363076709</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>497</v>
@@ -8958,19 +8958,19 @@
         <v>493203</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>449495</v>
+        <v>455356</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>531251</v>
+        <v>534322</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.305531755959092</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2784556340945337</v>
+        <v>0.2820863610008686</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3291018077881219</v>
+        <v>0.3310041919086976</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>94995</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75953</v>
+        <v>74045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118862</v>
+        <v>120181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1182894071997551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09457789789615842</v>
+        <v>0.09220153957430448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1480095588447193</v>
+        <v>0.149651881132193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -9008,19 +9008,19 @@
         <v>101516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85533</v>
+        <v>85340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>119290</v>
+        <v>119331</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1251477264170949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1054443665407797</v>
+        <v>0.1052054832294686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1470590271701475</v>
+        <v>0.1471099387035264</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>199</v>
@@ -9029,19 +9029,19 @@
         <v>196511</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167605</v>
+        <v>168089</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227287</v>
+        <v>225361</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1217357704522962</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1038285576792223</v>
+        <v>0.1041285239734397</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.140800642966953</v>
+        <v>0.139607712387493</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>31105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18982</v>
+        <v>19308</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49069</v>
+        <v>49289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03873262558330012</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02363709982032523</v>
+        <v>0.02404244358635931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06110183492990662</v>
+        <v>0.06137505603331247</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -9079,19 +9079,19 @@
         <v>53516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40172</v>
+        <v>40074</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71051</v>
+        <v>70814</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06597358833030688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04952326602516161</v>
+        <v>0.04940317381015551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08759018771023699</v>
+        <v>0.08729810851346538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>84</v>
@@ -9100,19 +9100,19 @@
         <v>84621</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65952</v>
+        <v>64146</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>109871</v>
+        <v>107188</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05242143912492749</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04085626169536137</v>
+        <v>0.0397375751651181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06806353784279957</v>
+        <v>0.06640108132814719</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>286181</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>257213</v>
+        <v>256286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316506</v>
+        <v>315981</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2893010012589871</v>
+        <v>0.2893010012589872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2600167028405759</v>
+        <v>0.259079690436847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3199560288979608</v>
+        <v>0.3194256191470177</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>542</v>
@@ -9225,19 +9225,19 @@
         <v>360713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>335550</v>
+        <v>331606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>386619</v>
+        <v>387959</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3227136634069301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3002016326563012</v>
+        <v>0.2966725088706663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3458904584293446</v>
+        <v>0.3470894060673841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>859</v>
@@ -9246,19 +9246,19 @@
         <v>646895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>609525</v>
+        <v>607345</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>688621</v>
+        <v>686602</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.307026485384531</v>
+        <v>0.3070264853845311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2892901370204191</v>
+        <v>0.2882554338450926</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.326830363524532</v>
+        <v>0.3258720359926965</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>251116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>222543</v>
+        <v>223916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>280383</v>
+        <v>286503</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.253853789047464</v>
+        <v>0.2538537890474641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2249688962243839</v>
+        <v>0.2263565054523257</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.283439809346675</v>
+        <v>0.2896260234313511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>413</v>
@@ -9296,19 +9296,19 @@
         <v>302353</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275763</v>
+        <v>276515</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328951</v>
+        <v>329301</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2705012962707988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2467127190448767</v>
+        <v>0.2473855057149959</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.294297108572177</v>
+        <v>0.2946110417106375</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>670</v>
@@ -9317,19 +9317,19 @@
         <v>553470</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>516878</v>
+        <v>511062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>593346</v>
+        <v>593873</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2626853249397715</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2453185659150122</v>
+        <v>0.2425579500423865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2816111392722233</v>
+        <v>0.281861617569924</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>264290</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>237712</v>
+        <v>234889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>300193</v>
+        <v>295841</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2671706878104729</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2403032586247179</v>
+        <v>0.2374497507310124</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3034650363080034</v>
+        <v>0.2990658536535749</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>381</v>
@@ -9367,19 +9367,19 @@
         <v>280364</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>255048</v>
+        <v>254034</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>306813</v>
+        <v>307183</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2508292592581292</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.228179934700373</v>
+        <v>0.2272729870248473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2744913023625473</v>
+        <v>0.2748226200834666</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>636</v>
@@ -9388,19 +9388,19 @@
         <v>544654</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>508736</v>
+        <v>503114</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>588273</v>
+        <v>585932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2585015272655652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2414541652032691</v>
+        <v>0.238785899697582</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2792034752513777</v>
+        <v>0.2780925616445526</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>108301</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90384</v>
+        <v>89920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>131614</v>
+        <v>131536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1094814329029146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09136938619370635</v>
+        <v>0.09090043127198622</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1330486428995933</v>
+        <v>0.1329703069005309</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -9438,19 +9438,19 @@
         <v>116621</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>98130</v>
+        <v>97314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>136950</v>
+        <v>137479</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1043351758353557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08779286480645571</v>
+        <v>0.08706200910329419</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1225228660526775</v>
+        <v>0.122995903527516</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>247</v>
@@ -9459,19 +9459,19 @@
         <v>224922</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>195960</v>
+        <v>196443</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>253214</v>
+        <v>257629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1067513332313265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09300571283201138</v>
+        <v>0.09323475152600538</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1201793079010521</v>
+        <v>0.1222748477703845</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>79328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63304</v>
+        <v>62750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99843</v>
+        <v>99773</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08019308898016124</v>
+        <v>0.08019308898016125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06399445734414996</v>
+        <v>0.06343355962764231</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1009316429656443</v>
+        <v>0.100860652955388</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -9509,19 +9509,19 @@
         <v>57699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46720</v>
+        <v>45418</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73594</v>
+        <v>72851</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05162060522878634</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04179837619253154</v>
+        <v>0.04063358847356249</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0658410002099049</v>
+        <v>0.06517643783470715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -9530,19 +9530,19 @@
         <v>137027</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114155</v>
+        <v>114679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>159496</v>
+        <v>161224</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06503532917880586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05417974897637628</v>
+        <v>0.05442837582081032</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07569942670401389</v>
+        <v>0.07651950374644292</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1020847</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>969792</v>
+        <v>960280</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1090931</v>
+        <v>1075167</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2894443330704255</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2749684351582604</v>
+        <v>0.2722715817553896</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3093153251470239</v>
+        <v>0.3048456712980174</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1843</v>
@@ -9655,19 +9655,19 @@
         <v>1139211</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1091879</v>
+        <v>1089808</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1185544</v>
+        <v>1188509</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3055322979890384</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2928379645005189</v>
+        <v>0.2922824918748743</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3179586622061396</v>
+        <v>0.318753787947024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2940</v>
@@ -9676,19 +9676,19 @@
         <v>2160059</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2085596</v>
+        <v>2091573</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2230287</v>
+        <v>2244117</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2977119237199493</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2874489784527731</v>
+        <v>0.288272861812217</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3073911457287024</v>
+        <v>0.3092973251936026</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>863128</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>810829</v>
+        <v>812467</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>927478</v>
+        <v>924388</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2447255893863674</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2298970717533622</v>
+        <v>0.2303616916571925</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2629710638017409</v>
+        <v>0.2620949234222343</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1343</v>
@@ -9726,19 +9726,19 @@
         <v>965303</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>917946</v>
+        <v>918626</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1017400</v>
+        <v>1015248</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2588906107583832</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2461897064091136</v>
+        <v>0.2463722418812483</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2728630570387038</v>
+        <v>0.2722857372986123</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2186</v>
@@ -9747,19 +9747,19 @@
         <v>1828430</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1758130</v>
+        <v>1756711</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1898195</v>
+        <v>1905744</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2520049810830817</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2423157753578677</v>
+        <v>0.2421201642229908</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2616203368066263</v>
+        <v>0.2626608423662491</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>988033</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>925122</v>
+        <v>933107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1047393</v>
+        <v>1053883</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2801403106093572</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2623030736366825</v>
+        <v>0.2645669757213462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.296970965707507</v>
+        <v>0.2988110805622129</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1388</v>
@@ -9797,19 +9797,19 @@
         <v>1024749</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>976015</v>
+        <v>974983</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1076449</v>
+        <v>1076753</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2748338282878743</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.261763531263231</v>
+        <v>0.2614868127024608</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2886996927404855</v>
+        <v>0.2887811097860874</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2275</v>
@@ -9818,19 +9818,19 @@
         <v>2012781</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1940054</v>
+        <v>1936453</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2091707</v>
+        <v>2089507</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2774133141343588</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2673895498295872</v>
+        <v>0.2668932188760219</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.288291254677257</v>
+        <v>0.2879880733403428</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>398468</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>358590</v>
+        <v>357114</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>450541</v>
+        <v>444333</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1129790748195368</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1016721416891462</v>
+        <v>0.1012537287458213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1277434463244461</v>
+        <v>0.1259831349726204</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>459</v>
@@ -9868,19 +9868,19 @@
         <v>353326</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>319619</v>
+        <v>319884</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>388201</v>
+        <v>386596</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09476068112037375</v>
+        <v>0.09476068112037374</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08572063721089769</v>
+        <v>0.08579172654077087</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1041140929019403</v>
+        <v>0.1036837373508755</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>794</v>
@@ -9889,19 +9889,19 @@
         <v>751794</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>701067</v>
+        <v>697275</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>808379</v>
+        <v>808190</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1036166587427661</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09662514518009631</v>
+        <v>0.09610249621103926</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1114155783417714</v>
+        <v>0.111389444711673</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>256445</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>220764</v>
+        <v>219953</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>295234</v>
+        <v>296440</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07271069211431311</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06259409898000684</v>
+        <v>0.06236395139306162</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08370864837387973</v>
+        <v>0.08405067855710983</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>319</v>
@@ -9939,19 +9939,19 @@
         <v>246023</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>217862</v>
+        <v>218283</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>274523</v>
+        <v>275437</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06598258184433034</v>
+        <v>0.06598258184433033</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05842967726809391</v>
+        <v>0.05854262114727349</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07362617779240258</v>
+        <v>0.07387108240482441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>528</v>
@@ -9960,19 +9960,19 @@
         <v>502468</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>453465</v>
+        <v>453083</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>554741</v>
+        <v>554485</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.069253122319844</v>
+        <v>0.06925312231984398</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06249925164083772</v>
+        <v>0.06244661031971062</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07645770800733655</v>
+        <v>0.07642242518218761</v>
       </c>
     </row>
     <row r="33">
